--- a/sanjay/modbus regiser map-MDR.xlsx
+++ b/sanjay/modbus regiser map-MDR.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANJAY MANE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\testRepo\sanjay\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>ADDRESS</t>
   </si>
@@ -59,18 +59,12 @@
     <t>parameter</t>
   </si>
   <si>
-    <t>format</t>
-  </si>
-  <si>
     <t>0.0 to 200.0 deg C</t>
   </si>
   <si>
     <t>temp Low</t>
   </si>
   <si>
-    <t>32bit float</t>
-  </si>
-  <si>
     <t>temp High</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>o to 59 ss</t>
   </si>
   <si>
-    <t>1= start, 2=pause, 3=stop</t>
-  </si>
-  <si>
     <t>0x30023</t>
   </si>
   <si>
@@ -156,22 +147,32 @@
   </si>
   <si>
     <t>nul</t>
+  </si>
+  <si>
+    <t>multiplying factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data format </t>
+  </si>
+  <si>
+    <t>long int</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>holding</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -193,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -216,15 +217,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,260 +677,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:F26"/>
+  <dimension ref="C3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="D4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D20" s="15">
+        <v>9600</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="D25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sanjay/modbus regiser map-MDR.xlsx
+++ b/sanjay/modbus regiser map-MDR.xlsx
@@ -180,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +193,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -380,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -397,6 +403,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,7 +688,7 @@
   <dimension ref="C3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,19 +745,19 @@
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="F6" s="16">
+        <v>10</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>45</v>
       </c>
     </row>
@@ -757,19 +765,19 @@
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="F7" s="16">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>45</v>
       </c>
     </row>
@@ -877,19 +885,19 @@
       <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="F13" s="16">
+        <v>10</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>45</v>
       </c>
     </row>
@@ -897,19 +905,19 @@
       <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="F14" s="16">
+        <v>10</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>45</v>
       </c>
     </row>
@@ -917,19 +925,19 @@
       <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="F15" s="16">
+        <v>10</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>45</v>
       </c>
     </row>
@@ -937,19 +945,19 @@
       <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="16">
         <v>100</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>45</v>
       </c>
     </row>

--- a/sanjay/modbus regiser map-MDR.xlsx
+++ b/sanjay/modbus regiser map-MDR.xlsx
@@ -180,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +199,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -386,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -405,6 +411,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,7 +696,7 @@
   <dimension ref="C3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +733,7 @@
       <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -785,7 +793,7 @@
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">

--- a/sanjay/modbus regiser map-MDR.xlsx
+++ b/sanjay/modbus regiser map-MDR.xlsx
@@ -12,19 +12,30 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>ADDRESS</t>
   </si>
@@ -162,6 +173,15 @@
   </si>
   <si>
     <t>holding</t>
+  </si>
+  <si>
+    <t>0X30025</t>
+  </si>
+  <si>
+    <t>max torque</t>
+  </si>
+  <si>
+    <t>0 to 999.00</t>
   </si>
   <si>
     <t>Type</t>
@@ -180,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,20 +213,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -236,7 +244,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -248,10 +256,25 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -269,7 +292,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -278,6 +301,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -293,26 +331,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -321,66 +346,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -392,27 +361,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,345 +656,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H25"/>
+  <dimension ref="B4:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="E5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="F5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="G5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="C18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="9">
+        <v>100</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="11">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="10">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="16">
-        <v>10</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="16">
-        <v>10</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="16">
-        <v>10</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="16">
-        <v>10</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="16">
-        <v>10</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="16">
-        <v>100</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="15">
-        <v>9600</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="1">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
